--- a/year3/SIT/subnetting.xlsx
+++ b/year3/SIT/subnetting.xlsx
@@ -1,21 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radek.pelikan\Desktop\NOTES_GH\year3\SIT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822FA96D-00F6-4D74-A90B-5D45FECB6D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
     <sheet name="List3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
   <si>
     <t>84.123.60.0/22</t>
   </si>
@@ -195,13 +234,106 @@
   </si>
   <si>
     <t>80.36.15.62</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>210.37.39.128/25</t>
+  </si>
+  <si>
+    <t>210.37.39.128</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>značení</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>první host</t>
+  </si>
+  <si>
+    <t>210.37.39.129</t>
+  </si>
+  <si>
+    <t>210.37.39.191</t>
+  </si>
+  <si>
+    <t>210.37.39.192</t>
+  </si>
+  <si>
+    <t>210.37.39.193</t>
+  </si>
+  <si>
+    <t>210.37.39.207</t>
+  </si>
+  <si>
+    <t>210.37.39.208</t>
+  </si>
+  <si>
+    <t>210.37.39.209</t>
+  </si>
+  <si>
+    <t>210.37.39.215</t>
+  </si>
+  <si>
+    <t>210.37.39.216</t>
+  </si>
+  <si>
+    <t>210.37.39.217</t>
+  </si>
+  <si>
+    <t>210.37.39.223</t>
+  </si>
+  <si>
+    <t>210.37.39.224</t>
+  </si>
+  <si>
+    <t>210.37.39.225</t>
+  </si>
+  <si>
+    <t>210.37.39.231</t>
+  </si>
+  <si>
+    <t>210.37.39.232</t>
+  </si>
+  <si>
+    <t>210.37.39.233</t>
+  </si>
+  <si>
+    <t>210.37.39.239</t>
+  </si>
+  <si>
+    <t>210.37.39.240</t>
+  </si>
+  <si>
+    <t>210.37.39.241</t>
+  </si>
+  <si>
+    <t>210.37.39.247</t>
+  </si>
+  <si>
+    <t>210.37.39.248</t>
+  </si>
+  <si>
+    <t>210.37.39.249</t>
+  </si>
+  <si>
+    <t>210.37.39.251</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +341,28 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFBDC1C6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0A0101"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1E1E1E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -239,6 +393,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -249,14 +412,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
-    <a:clrScheme name="Kancelář">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,9 +460,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kancelář">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +495,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,9 +547,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kancelář">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -539,666 +739,1155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="7" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7">
+        <f>2 ^(32-A2)</f>
+        <v>4</v>
+      </c>
+      <c r="C2" s="7">
+        <f>B2-$D$1</f>
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>30</v>
-      </c>
-      <c r="I5">
-        <f>2 ^(32-H5)</f>
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <f>I5-2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1">
-        <v>135</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>24</v>
-      </c>
-      <c r="H6">
-        <f>H5-1</f>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>A2-1</f>
         <v>29</v>
       </c>
-      <c r="I6">
-        <f>2 ^(32-H6)</f>
+      <c r="B3" s="7">
+        <f>2 ^(32-A3)</f>
         <v>8</v>
       </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J25" si="0">I6-2</f>
+      <c r="C3" s="7">
+        <f t="shared" ref="C3:C17" si="0">B3-$D$1</f>
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1">
-        <v>420</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>23</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H25" si="1">H6-1</f>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>A3-1</f>
         <v>28</v>
       </c>
-      <c r="I7">
-        <f>2 ^(32-H7)</f>
+      <c r="B4" s="7">
+        <f>2 ^(32-A4)</f>
         <v>16</v>
       </c>
-      <c r="J7">
+      <c r="C4" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8">
-        <v>26</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>A4-1</f>
         <v>27</v>
       </c>
-      <c r="I8">
-        <f t="shared" ref="I8:I24" si="2">2 ^(32-H8)</f>
+      <c r="B5" s="7">
+        <f>2 ^(32-A5)</f>
         <v>32</v>
       </c>
-      <c r="J8">
+      <c r="C5" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
         <v>25</v>
       </c>
-      <c r="B9" s="1">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>28</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>A5-1</f>
         <v>26</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
+      <c r="B6" s="7">
+        <f>2 ^(32-A6)</f>
         <v>64</v>
       </c>
-      <c r="J9">
+      <c r="C6" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="H10">
-        <f t="shared" si="1"/>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>A6-1</f>
         <v>25</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
+      <c r="B7" s="7">
+        <f>2 ^(32-A7)</f>
         <v>128</v>
       </c>
-      <c r="J10">
+      <c r="C7" s="7">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
+        <v>420</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>A7-1</f>
         <v>24</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
+      <c r="B8" s="7">
+        <f>2 ^(32-A8)</f>
         <v>256</v>
       </c>
-      <c r="J11">
+      <c r="C8" s="7">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H12">
-        <f t="shared" si="1"/>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <f>A8-1</f>
         <v>23</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
+      <c r="B9" s="7">
+        <f>2 ^(32-A9)</f>
         <v>512</v>
       </c>
-      <c r="J12">
+      <c r="C9" s="7">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <f>A9-1</f>
         <v>22</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
+      <c r="B10" s="7">
+        <f>2 ^(32-A10)</f>
         <v>1024</v>
       </c>
-      <c r="J13">
+      <c r="C10" s="7">
         <f t="shared" si="0"/>
         <v>1022</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <f>A10-1</f>
         <v>21</v>
       </c>
-      <c r="B14" s="1">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14">
-        <v>28</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
+      <c r="B11" s="7">
+        <f>2 ^(32-A11)</f>
         <v>2048</v>
       </c>
-      <c r="J14">
+      <c r="C11" s="7">
         <f t="shared" si="0"/>
         <v>2046</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15">
-        <v>25</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <f>A11-1</f>
         <v>20</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
+      <c r="B12" s="7">
+        <f>2 ^(32-A12)</f>
         <v>4096</v>
       </c>
-      <c r="J15">
+      <c r="C12" s="7">
         <f t="shared" si="0"/>
         <v>4094</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1">
-        <v>140</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16">
-        <v>24</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <f>A12-1</f>
         <v>19</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
+      <c r="B13" s="7">
+        <f>2 ^(32-A13)</f>
         <v>8192</v>
       </c>
-      <c r="J16">
+      <c r="C13" s="7">
         <f t="shared" si="0"/>
         <v>8190</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1">
-        <v>300</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17">
-        <v>23</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <f>A13-1</f>
         <v>18</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
+      <c r="B14" s="7">
+        <f>2 ^(32-A14)</f>
         <v>16384</v>
       </c>
-      <c r="J17">
+      <c r="C14" s="7">
         <f t="shared" si="0"/>
         <v>16382</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18">
-        <v>26</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <f>A14-1</f>
         <v>17</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
+      <c r="B15" s="7">
+        <f>2 ^(32-A15)</f>
         <v>32768</v>
       </c>
-      <c r="J18">
+      <c r="C15" s="7">
         <f t="shared" si="0"/>
         <v>32766</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H19">
-        <f t="shared" si="1"/>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <f>A15-1</f>
         <v>16</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
+      <c r="B16" s="7">
+        <f>2 ^(32-A16)</f>
         <v>65536</v>
       </c>
-      <c r="J19">
+      <c r="C16" s="7">
         <f t="shared" si="0"/>
         <v>65534</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1">
+        <v>140</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <f>A16-1</f>
         <v>15</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
+      <c r="B17" s="7">
+        <f>2 ^(32-A17)</f>
         <v>131072</v>
       </c>
-      <c r="J20">
+      <c r="C17" s="7">
         <f t="shared" si="0"/>
         <v>131070</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H21">
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1">
+        <v>300</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <f>2 ^(32-A22)</f>
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <f>B22-$D$21</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>A22-1</f>
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <f>2 ^(32-A23)</f>
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:C37" si="1">B23-$D$21</f>
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1">
+        <v>230</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>A23-1</f>
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <f>2 ^(32-A24)</f>
+        <v>16</v>
+      </c>
+      <c r="C24">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I21">
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>A24-1</f>
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <f>2 ^(32-A25)</f>
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1300</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>A25-1</f>
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <f>2 ^(32-A26)</f>
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>A26-1</f>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f>2 ^(32-A27)</f>
+        <v>128</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1">
+        <v>800</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>A27-1</f>
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <f>2 ^(32-A28)</f>
+        <v>256</v>
+      </c>
+      <c r="C28">
+        <f>B28-$D$21</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>A28-1</f>
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <f>2 ^(32-A29)</f>
+        <v>512</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>A29-1</f>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <f>2 ^(32-A30)</f>
+        <v>1024</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>A30-1</f>
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <f>2 ^(32-A31)</f>
+        <v>2048</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>2046</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f>D22</f>
+        <v>značení</v>
+      </c>
+      <c r="E31" s="3" t="str">
+        <f>E22</f>
+        <v>poč. hostů</v>
+      </c>
+      <c r="F31" s="3" t="str">
+        <f>F22</f>
+        <v>sítě</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f>I22</f>
+        <v>prefix</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>A31-1</f>
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <f>2 ^(32-A32)</f>
+        <v>4096</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>4094</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A32-1</f>
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <f>2 ^(32-A33)</f>
+        <v>8192</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>8190</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>A33-1</f>
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <f>2 ^(32-A34)</f>
+        <v>16384</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>16382</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>A34-1</f>
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <f>2 ^(32-A35)</f>
+        <v>32768</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>32766</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>A35-1</f>
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <f>2 ^(32-A36)</f>
+        <v>65536</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>65534</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>A36-1</f>
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <f>2 ^(32-A37)</f>
+        <v>131072</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>131070</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D43" s="3" t="str">
+        <f>D31</f>
+        <v>značení</v>
+      </c>
+      <c r="E43" s="3" t="str">
+        <f t="shared" ref="E43:I43" si="2">E31</f>
+        <v>poč. hostů</v>
+      </c>
+      <c r="F43" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>262144</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>262142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
+        <v>sítě</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>první host</v>
+      </c>
+      <c r="H43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>broadcast</v>
+      </c>
+      <c r="I43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>prefix</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="str">
+        <f>$E$1</f>
+        <v>A</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>29</v>
+      </c>
+      <c r="J44" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="J44" ca="1">_xludf.IF(C2:C17&lt;100,1,0)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="str">
+        <f>_xlfn.UNICHAR(_xlfn.UNICODE(D44) + 1)</f>
+        <v>B</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="str">
+        <f t="shared" ref="D46:D51" si="3">_xlfn.UNICHAR(_xlfn.UNICODE(D45) + 1)</f>
+        <v>C</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>E</v>
+      </c>
+      <c r="E48">
+        <v>62</v>
+      </c>
+      <c r="I48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>G</v>
+      </c>
+      <c r="E50">
+        <v>14</v>
+      </c>
+      <c r="I50">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>H</v>
+      </c>
+      <c r="E51">
         <v>2</v>
       </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="I22">
-        <f>2 ^(32-H22)</f>
-        <v>524288</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>524286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1">
-        <v>230</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23">
-        <v>24</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>1048576</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>1048574</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1">
-        <v>400</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24">
-        <v>23</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="2"/>
-        <v>2097152</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>2097150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1300</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25">
-        <v>21</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I25">
-        <f>2 ^(32-H25)</f>
-        <v>4194304</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>4194302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1">
-        <v>800</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27">
-        <v>22</v>
-      </c>
+      <c r="I51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D52" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D32:I39">
+    <sortCondition ref="D32:D39"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
